--- a/sormovo_val.xlsx
+++ b/sormovo_val.xlsx
@@ -5,22 +5,22 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Мой диск\Elbrus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Мой диск\Elbrus\11.02.2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E87395-7E22-4BC9-A97D-D3CDA7DBA85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA79181-474C-4BD0-83D6-BF0F4489E664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="12435" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="600" windowWidth="21120" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Заявка №</t>
   </si>
@@ -162,17 +162,6 @@
   </si>
   <si>
     <t>Валищево</t>
-  </si>
-  <si>
-    <t>Ст-048095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Вольво А652СЕ57, ВХ6794/50
-Четвериков Алексей Николаевич
-в/у 9909 682005 19.06.2020
-5415 403155, выдан Межрайонным отделом УФМС России по Орловской обл. в г.Мценске, 01.04.2016
-8-905-167-72-38</t>
   </si>
   <si>
     <t>д. Валищево, 9-й км дороги А-107 "Московское малое кольцо", 7а</t>
@@ -235,31 +224,13 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -652,61 +623,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,205 +643,222 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,64 +870,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1004,25 +938,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>320879</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>26815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1084" name="Рисунок 2">
+        <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC92FBE-8411-4DB7-91D7-340E379D3DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FA682E-C26F-7CA2-C6A3-1AEDB5A73E1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,45 +972,21 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6743700" y="6781800"/>
-          <a:ext cx="1419225" cy="1447800"/>
+          <a:off x="6688667" y="6561666"/>
+          <a:ext cx="1421545" cy="1413232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1371,7 +1281,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+      <selection activeCell="A30" sqref="A30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1392,486 +1302,482 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="6" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <v>45348</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="62" t="s">
+      <c r="B4" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="63"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="65" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="61"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="66"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="43"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="64">
+        <v>45349</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="67">
+        <v>0.375</v>
+      </c>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="57"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="67">
-        <v>45349</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="70">
-        <v>0.375</v>
-      </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="45"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="G16" s="47"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="40"/>
+    </row>
+    <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="22" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="18" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="30" t="s">
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="82" t="s">
+      <c r="G22" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="34"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="48">
         <v>5753040435</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="31" t="s">
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="78" t="s">
+      <c r="G24" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="80"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="101" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="104"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="106"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="109"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="98"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="112"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="84"/>
     </row>
     <row r="30" spans="1:10" ht="92.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -1886,95 +1792,95 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="76" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="4"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="F34" s="24" t="s">
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="F34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="3"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="F36" s="24" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="F36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F39" s="14"/>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="60">
